--- a/Dataset/PerceptionReasoing/Annotator.xlsx
+++ b/Dataset/PerceptionReasoing/Annotator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDDE3AE-4643-4458-93AE-1AC0F24AE441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46956C12-C600-4EFD-8A5D-5461FEBD3039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{3E50D4DB-3FDB-5646-A99E-13EE6BC3D69D}"/>
   </bookViews>
@@ -189,9 +189,6 @@
     <t>Based on the overhead signs, what is the critical navigational decision the vehicle must make?</t>
   </si>
   <si>
-    <t>LR9.png</t>
-  </si>
-  <si>
     <t>LR11.png</t>
   </si>
   <si>
@@ -304,45 +301,6 @@
     <t>Narrow Roadway</t>
   </si>
   <si>
-    <t>NR1</t>
-  </si>
-  <si>
-    <t>NR2</t>
-  </si>
-  <si>
-    <t>NR3</t>
-  </si>
-  <si>
-    <t>NR4</t>
-  </si>
-  <si>
-    <t>NR5</t>
-  </si>
-  <si>
-    <t>NR6</t>
-  </si>
-  <si>
-    <t>NR7</t>
-  </si>
-  <si>
-    <t>NR8</t>
-  </si>
-  <si>
-    <t>NR9</t>
-  </si>
-  <si>
-    <t>NR10</t>
-  </si>
-  <si>
-    <t>NR11</t>
-  </si>
-  <si>
-    <t>NR12</t>
-  </si>
-  <si>
-    <t>NR13</t>
-  </si>
-  <si>
     <t>What is the primary risk in this environment and the correct mitigating action?</t>
   </si>
   <si>
@@ -385,15 +343,6 @@
     <t>Slow down and hold position, yielding to the oncoming car. Proceed only after it has cleared the narrow section and the path is clear.</t>
   </si>
   <si>
-    <t>NR14</t>
-  </si>
-  <si>
-    <t>NR15</t>
-  </si>
-  <si>
-    <t>NR16</t>
-  </si>
-  <si>
     <t>Maintain a safe following distance from the vehicles ahead and steer to stay centered within the path created by the temporary barriers on the right.</t>
   </si>
   <si>
@@ -424,36 +373,6 @@
     <t>Unidirectional Traffic</t>
   </si>
   <si>
-    <t>UT1</t>
-  </si>
-  <si>
-    <t>UT2</t>
-  </si>
-  <si>
-    <t>UT3</t>
-  </si>
-  <si>
-    <t>UT4</t>
-  </si>
-  <si>
-    <t>UT5</t>
-  </si>
-  <si>
-    <t>UT7</t>
-  </si>
-  <si>
-    <t>UT8</t>
-  </si>
-  <si>
-    <t>UT9</t>
-  </si>
-  <si>
-    <t>UT10</t>
-  </si>
-  <si>
-    <t>UT11</t>
-  </si>
-  <si>
     <t>Approach the intersection, stop, and look left for approaching vehicles. When a safe gap in traffic is confirmed, execute a left turn to merge into the unidirectional flow.</t>
   </si>
   <si>
@@ -508,79 +427,10 @@
     <t>Navigation Decission Making</t>
   </si>
   <si>
-    <t>NDM1</t>
-  </si>
-  <si>
     <t>Based on the visible traffic signs, what is the primary navigational rule the vehicle must adhere to on this road?</t>
   </si>
   <si>
     <t>Acknowledge the 'No U-turn' sign and update the path planner to prohibit that maneuver for this segment. Continue following the main roadway with the flow of traffic.</t>
-  </si>
-  <si>
-    <t>NDM2</t>
-  </si>
-  <si>
-    <t>NDM3</t>
-  </si>
-  <si>
-    <t>NDM4</t>
-  </si>
-  <si>
-    <t>NDM5</t>
-  </si>
-  <si>
-    <t>NDM6</t>
-  </si>
-  <si>
-    <t>NDM7</t>
-  </si>
-  <si>
-    <t>NDM8</t>
-  </si>
-  <si>
-    <t>NDM9</t>
-  </si>
-  <si>
-    <t>NDM10</t>
-  </si>
-  <si>
-    <t>NDM12</t>
-  </si>
-  <si>
-    <t>NDM13</t>
-  </si>
-  <si>
-    <t>NDM14</t>
-  </si>
-  <si>
-    <t>NDM15</t>
-  </si>
-  <si>
-    <t>NDM16</t>
-  </si>
-  <si>
-    <t>NDM17</t>
-  </si>
-  <si>
-    <t>NDM18</t>
-  </si>
-  <si>
-    <t>NDM19</t>
-  </si>
-  <si>
-    <t>NDM20</t>
-  </si>
-  <si>
-    <t>NDM21</t>
-  </si>
-  <si>
-    <t>NDM22</t>
-  </si>
-  <si>
-    <t>NDM23</t>
-  </si>
-  <si>
-    <t>NDM24</t>
   </si>
   <si>
     <t>Based on the regulatory signs ahead, what is the most critical adjustment the vehicle must make?</t>
@@ -719,12 +569,6 @@
     <t>Acknowledge the lead vehicle's left-turn signal. Increase the following distance to create a safe buffer, anticipating that it will slow down to wait for a gap in the adjacent lane.</t>
   </si>
   <si>
-    <t>NDM25</t>
-  </si>
-  <si>
-    <t>NDM26</t>
-  </si>
-  <si>
     <t>The SUV in the adjacent right lane is signaling to merge into our lane. What is the required safety maneuver?</t>
   </si>
   <si>
@@ -735,6 +579,162 @@
   </si>
   <si>
     <t>Maintain a safe following distance from the lead motorcycle. The black motorcycle further ahead is following the natural curve of the road and currently requires no deviation from our path.</t>
+  </si>
+  <si>
+    <t>NR1.png</t>
+  </si>
+  <si>
+    <t>NR2.png</t>
+  </si>
+  <si>
+    <t>NR3.png</t>
+  </si>
+  <si>
+    <t>NR4.png</t>
+  </si>
+  <si>
+    <t>NR5.png</t>
+  </si>
+  <si>
+    <t>NR6.png</t>
+  </si>
+  <si>
+    <t>NR7.png</t>
+  </si>
+  <si>
+    <t>NR8.png</t>
+  </si>
+  <si>
+    <t>NR9.png</t>
+  </si>
+  <si>
+    <t>NR10.png</t>
+  </si>
+  <si>
+    <t>NR11.png</t>
+  </si>
+  <si>
+    <t>NR12.png</t>
+  </si>
+  <si>
+    <t>NR13.png</t>
+  </si>
+  <si>
+    <t>NR14.png</t>
+  </si>
+  <si>
+    <t>NR15.png</t>
+  </si>
+  <si>
+    <t>NR16.png</t>
+  </si>
+  <si>
+    <t>LR9.jpg</t>
+  </si>
+  <si>
+    <t>UT1.png</t>
+  </si>
+  <si>
+    <t>UT2.png</t>
+  </si>
+  <si>
+    <t>UT3.png</t>
+  </si>
+  <si>
+    <t>UT4.png</t>
+  </si>
+  <si>
+    <t>UT5.png</t>
+  </si>
+  <si>
+    <t>UT7.png</t>
+  </si>
+  <si>
+    <t>UT8.png</t>
+  </si>
+  <si>
+    <t>UT9.png</t>
+  </si>
+  <si>
+    <t>UT10.jpg</t>
+  </si>
+  <si>
+    <t>UT11.png</t>
+  </si>
+  <si>
+    <t>NDM1.png</t>
+  </si>
+  <si>
+    <t>NDM2.png</t>
+  </si>
+  <si>
+    <t>NDM3.png</t>
+  </si>
+  <si>
+    <t>NDM4.png</t>
+  </si>
+  <si>
+    <t>NDM5.png</t>
+  </si>
+  <si>
+    <t>NDM6.png</t>
+  </si>
+  <si>
+    <t>NDM7.png</t>
+  </si>
+  <si>
+    <t>NDM8.png</t>
+  </si>
+  <si>
+    <t>NDM9.png</t>
+  </si>
+  <si>
+    <t>NDM10.png</t>
+  </si>
+  <si>
+    <t>NDM12.png</t>
+  </si>
+  <si>
+    <t>NDM13.png</t>
+  </si>
+  <si>
+    <t>NDM14.png</t>
+  </si>
+  <si>
+    <t>NDM15.png</t>
+  </si>
+  <si>
+    <t>NDM16.png</t>
+  </si>
+  <si>
+    <t>NDM17.png</t>
+  </si>
+  <si>
+    <t>NDM18.png</t>
+  </si>
+  <si>
+    <t>NDM19.png</t>
+  </si>
+  <si>
+    <t>NDM20.png</t>
+  </si>
+  <si>
+    <t>NDM21.png</t>
+  </si>
+  <si>
+    <t>NDM22.png</t>
+  </si>
+  <si>
+    <t>NDM23.png</t>
+  </si>
+  <si>
+    <t>NDM24.png</t>
+  </si>
+  <si>
+    <t>NDM25.png</t>
+  </si>
+  <si>
+    <t>NDM26.png</t>
   </si>
 </sst>
 </file>
@@ -1139,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE56E50-7C0A-AC4E-89C1-E127AC9023C0}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B71" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -1172,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -1281,13 +1281,13 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="80">
@@ -1295,13 +1295,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="48">
@@ -1309,13 +1309,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="64">
@@ -1323,13 +1323,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="80">
@@ -1337,13 +1337,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="48">
@@ -1351,13 +1351,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="64">
@@ -1365,13 +1365,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="64">
@@ -1379,13 +1379,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="48">
@@ -1393,13 +1393,13 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="48">
@@ -1407,13 +1407,13 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="48">
@@ -1421,13 +1421,13 @@
         <v>4</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="48">
@@ -1435,13 +1435,13 @@
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="48">
@@ -1449,725 +1449,725 @@
         <v>4</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="32">
       <c r="A23" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="32">
       <c r="A24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="48">
       <c r="A25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="32">
       <c r="A26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="D26" s="1" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="48">
       <c r="A27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="48">
       <c r="A28" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>71</v>
+        <v>159</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="48">
       <c r="A29" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="48">
       <c r="A30" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="48">
       <c r="A31" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="48">
       <c r="A32" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="64">
       <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="D33" s="1" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="48">
       <c r="A34" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="48">
       <c r="A35" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="48">
       <c r="A36" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>93</v>
+        <v>167</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="48">
       <c r="A37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="48">
       <c r="A38" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="48">
       <c r="A39" s="1" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="48">
       <c r="A40" s="1" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="48">
       <c r="A41" s="1" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="48">
       <c r="A42" s="1" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="48">
       <c r="A43" s="1" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="32">
       <c r="A44" s="1" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>111</v>
+        <v>176</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="D44" s="1"/>
     </row>
     <row r="45" spans="1:4" ht="48">
       <c r="A45" s="1" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="48">
       <c r="A46" s="1" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="48">
       <c r="A47" s="1" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>114</v>
+        <v>179</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="48">
       <c r="A48" s="1" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="48">
       <c r="A49" s="1" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>134</v>
+        <v>181</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="48">
       <c r="A50" s="1" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>160</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="48">
       <c r="A51" s="1" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>161</v>
+        <v>111</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>162</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="32">
       <c r="A52" s="1" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="48">
       <c r="A53" s="1" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>164</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="32">
       <c r="A54" s="1" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="48">
       <c r="A55" s="1" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>167</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="32">
       <c r="A56" s="1" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>169</v>
+        <v>119</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>170</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="64">
       <c r="A57" s="1" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>172</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="48">
       <c r="A58" s="1" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>174</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="64">
       <c r="A59" s="1" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="48">
       <c r="A60" s="1" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="48">
       <c r="A61" s="1" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="48">
       <c r="A62" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="48">
+      <c r="A63" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="32">
-      <c r="A63" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="D63" s="1" t="s">
-        <v>184</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="32">
       <c r="A64" s="1" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>151</v>
+        <v>196</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="32">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="64">
       <c r="A65" s="1" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>188</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="48">
       <c r="A66" s="1" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>153</v>
+        <v>198</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>189</v>
+        <v>139</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="128">
       <c r="A67" s="1" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>192</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="64">
       <c r="A68" s="1" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>193</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="48">
       <c r="A69" s="1" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="32">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="64">
       <c r="A70" s="1" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>197</v>
+        <v>147</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="32">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="48">
       <c r="A71" s="1" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>158</v>
+        <v>203</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>199</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="32">
       <c r="A72" s="1" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C72" t="s">
-        <v>202</v>
+        <v>150</v>
       </c>
       <c r="D72" t="s">
-        <v>203</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="32">
       <c r="A73" s="1" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C73" t="s">
-        <v>204</v>
+        <v>152</v>
       </c>
       <c r="D73" t="s">
-        <v>205</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
